--- a/doc/CS673_SPPP_RiskManagement_team4.xlsx
+++ b/doc/CS673_SPPP_RiskManagement_team4.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
   <si>
     <t>This sheet provides some common risks in student projects. You should check if it applies to your group project. 
 You should also feel free to add other risks. Exemplary analysis is also added.</t>
@@ -288,12 +288,48 @@
     <t>The chosen technology stack is not well-suited to the project's needs, leading to inefficiencies and technical debt.</t>
   </si>
   <si>
+    <t>The team member who is adding the new feature should be the one who determines what is correct for the new functionality that was added.</t>
+  </si>
+  <si>
     <t>Messy code</t>
   </si>
   <si>
     <t>Poor coding practices lead to unmaintainable and error-prone code, increasing future development time.</t>
   </si>
   <si>
+    <t>Work together as a team to make sure each developer has the same environment. This is useful so that there aren't accidental bugs added due to environment issues.</t>
+  </si>
+  <si>
+    <t>Incorrect Team Assignment Algorithm</t>
+  </si>
+  <si>
+    <t>The team assignment algorithm might not effectively group users into optimal teams, leading to team imbalance or inefficiency.</t>
+  </si>
+  <si>
+    <t>Research different algorithms for team assignment (e.g., clustering, heuristic methods).</t>
+  </si>
+  <si>
+    <t>The algorithm was designed and implemented after thorough research. Automated test cases were developed to ensure proper team assignment.</t>
+  </si>
+  <si>
+    <t>In Progress – Initial tests are promising, but further validation is needed on larger datasets.</t>
+  </si>
+  <si>
+    <t>Docker Misconfiguration</t>
+  </si>
+  <si>
+    <t>Errors in the Docker configuration might cause deployment failures or inconsistencies between development and production environments.</t>
+  </si>
+  <si>
+    <t>Regularly update the Dockerfile and ensure consistent deployment across environments. Test the Docker image with CI/CD pipelines to catch issues early.</t>
+  </si>
+  <si>
+    <t>Dockerfile updated with instructions for backend and API endpoint usage. Initial deployment tests have been successful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Progress </t>
+  </si>
+  <si>
     <t xml:space="preserve">Testing </t>
   </si>
   <si>
@@ -306,6 +342,27 @@
     <t>Develop testing plan before deploy. Set test coverage requirements.</t>
   </si>
   <si>
+    <t>End-to-End Testing Delays</t>
+  </si>
+  <si>
+    <t>End-to-end testing might face delays due to the complexity of setting up inputs and roles for different user scenarios.</t>
+  </si>
+  <si>
+    <t>test delays</t>
+  </si>
+  <si>
+    <t>Security Leader</t>
+  </si>
+  <si>
+    <t>Research and choose a suitable testing framework. Develop test cases for key workflows and inputs.</t>
+  </si>
+  <si>
+    <t>The end-to-end testing framework (Playwright) has been set up. Initial tests for user input and role assignment are being developed.</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
     <t>Integration and deployment</t>
   </si>
   <si>
@@ -315,10 +372,19 @@
     <t>Lack of proper time allocation for integration and deployment, leading to rushed and faulty releases.</t>
   </si>
   <si>
-    <t>The team member who is adding the new feature should be the one who determines what is correct for the new functionality that was added.</t>
-  </si>
-  <si>
-    <t>Work together as a team to make sure each developer has the same environment. This is useful so that there aren't accidental bugs added due to environment issues.</t>
+    <t>Outdated Documentation</t>
+  </si>
+  <si>
+    <t>Documents may become outdated as new implementations are made, leading to miscommunication and misalignment with team members.</t>
+  </si>
+  <si>
+    <t>requirement leader</t>
+  </si>
+  <si>
+    <t>Update documentation continuously after each significant change.</t>
+  </si>
+  <si>
+    <t>All relevant documents were updated following the new algorithm implementation.</t>
   </si>
 </sst>
 </file>
@@ -377,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -434,6 +500,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -472,6 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -484,9 +554,9 @@
     <col customWidth="1" min="4" max="4" width="23.13"/>
     <col customWidth="1" min="5" max="5" width="10.13"/>
     <col customWidth="1" min="6" max="7" width="10.88"/>
-    <col customWidth="1" min="8" max="8" width="10.75"/>
+    <col customWidth="1" min="8" max="8" width="26.88"/>
     <col customWidth="1" min="9" max="9" width="11.75"/>
-    <col customWidth="1" min="10" max="10" width="18.13"/>
+    <col customWidth="1" min="10" max="10" width="75.25"/>
     <col customWidth="1" min="11" max="11" width="16.38"/>
     <col customWidth="1" min="12" max="12" width="8.25"/>
   </cols>
@@ -564,7 +634,7 @@
         <v>4.0</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G24" si="1">(6-D3)*(6-E3)*F3</f>
+        <f t="shared" ref="G3:G22" si="1">(6-D3)*(6-E3)*F3</f>
         <v>40</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1423,7 +1493,9 @@
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="9"/>
@@ -1445,10 +1517,10 @@
     <row r="22">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="6"/>
@@ -1459,7 +1531,9 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="9"/>
@@ -1479,37 +1553,40 @@
       <c r="AA22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F23" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="14"/>
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="16">
+        <v>45575.0</v>
+      </c>
       <c r="J23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+        <v>95</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -1527,27 +1604,38 @@
       <c r="AA23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -1565,16 +1653,35 @@
       <c r="AA24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="10"/>
+      <c r="A25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G25" s="6">
+        <f>(6-D25)*(6-E25)*F25</f>
+        <v>12</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="I25" s="14"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="9"/>
@@ -1594,17 +1701,40 @@
       <c r="AA25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="20"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="A26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -1622,17 +1752,33 @@
       <c r="AA26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="20"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="A27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="G27" s="6">
+        <f>(6-D27)*(6-E27)*F27</f>
+        <v>48</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -1650,17 +1796,40 @@
       <c r="AA27" s="9"/>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -1678,17 +1847,17 @@
       <c r="AA28" s="9"/>
     </row>
     <row r="29">
-      <c r="A29" s="9"/>
+      <c r="A29" s="21"/>
       <c r="C29" s="9"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -1706,15 +1875,15 @@
       <c r="AA29" s="9"/>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
+      <c r="A30" s="21"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -1736,15 +1905,15 @@
     <row r="31">
       <c r="A31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -1764,16 +1933,16 @@
     <row r="32">
       <c r="A32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -1791,15 +1960,14 @@
     </row>
     <row r="33">
       <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -1819,18 +1987,17 @@
       <c r="AA33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -1848,19 +2015,18 @@
       <c r="AA34" s="9"/>
     </row>
     <row r="35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -1877,16 +2043,16 @@
       <c r="AA35" s="9"/>
     </row>
     <row r="36">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -1909,9 +2075,9 @@
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -1936,15 +2102,15 @@
     </row>
     <row r="38">
       <c r="A38" s="10"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="J38" s="10"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
@@ -1967,15 +2133,13 @@
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="J39" s="10"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -1998,9 +2162,9 @@
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2024,16 +2188,14 @@
       <c r="AA40" s="9"/>
     </row>
     <row r="41">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -2052,20 +2214,49 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
     </row>
+    <row r="42">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+    </row>
     <row r="43">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="22"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -2084,15 +2275,15 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="22"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="25"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -2110,49 +2301,20 @@
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-    </row>
     <row r="46">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="22"/>
+      <c r="G46" s="23"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -2168,7 +2330,97 @@
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
     </row>
+    <row r="47">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+    </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>